--- a/add-info-dmp/ig/documentReferenceToPDSM.xlsx
+++ b/add-info-dmp/ig/documentReferenceToPDSM.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-30T15:49:42+00:00</t>
+    <t>2025-04-30T16:02:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/documentReferenceToPDSM.xlsx
+++ b/add-info-dmp/ig/documentReferenceToPDSM.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-30T16:02:39+00:00</t>
+    <t>2025-05-01T10:35:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/documentReferenceToPDSM.xlsx
+++ b/add-info-dmp/ig/documentReferenceToPDSM.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-01T10:35:31+00:00</t>
+    <t>2025-05-01T16:30:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/documentReferenceToPDSM.xlsx
+++ b/add-info-dmp/ig/documentReferenceToPDSM.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="76">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-01T16:30:13+00:00</t>
+    <t>2025-05-02T13:48:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -90,22 +90,22 @@
     <t>Source</t>
   </si>
   <si>
+    <t>https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/DocumentEntry</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>https://interop.esante.gouv.fr/ig/fhir/pdsm/StructureDefinition/pdsm-comprehensive-document-reference</t>
+  </si>
+  <si>
     <t>Display</t>
   </si>
   <si>
     <t>Relationship</t>
   </si>
   <si>
-    <t>Target</t>
-  </si>
-  <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/DocumentEntry</t>
-  </si>
-  <si>
     <t/>
-  </si>
-  <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/pdsm/StructureDefinition/pdsm-comprehensive-document-reference</t>
   </si>
   <si>
     <t>DocumentEntry.entryUUID</t>
@@ -374,7 +374,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -489,6 +489,22 @@
         <v>23</v>
       </c>
       <c r="B14" s="2"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -508,33 +524,33 @@
         <v>24</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s" s="1">
         <v>26</v>
       </c>
-      <c r="D1" t="s" s="1">
-        <v>27</v>
-      </c>
       <c r="E1" t="s" s="1">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="E2" t="s" s="2">
         <v>30</v>
-      </c>
-      <c r="E2" t="s" s="2">
-        <v>29</v>
       </c>
     </row>
     <row r="3">

--- a/add-info-dmp/ig/documentReferenceToPDSM.xlsx
+++ b/add-info-dmp/ig/documentReferenceToPDSM.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-02T13:48:14+00:00</t>
+    <t>2025-05-02T13:48:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/documentReferenceToPDSM.xlsx
+++ b/add-info-dmp/ig/documentReferenceToPDSM.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-02T13:48:57+00:00</t>
+    <t>2025-05-02T14:15:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/documentReferenceToPDSM.xlsx
+++ b/add-info-dmp/ig/documentReferenceToPDSM.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-02T14:15:44+00:00</t>
+    <t>2025-05-02T17:24:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/documentReferenceToPDSM.xlsx
+++ b/add-info-dmp/ig/documentReferenceToPDSM.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-02T17:24:18+00:00</t>
+    <t>2025-05-03T11:17:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/documentReferenceToPDSM.xlsx
+++ b/add-info-dmp/ig/documentReferenceToPDSM.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="77">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-03T11:17:55+00:00</t>
+    <t>2025-05-03T14:02:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>Relation entre une  fiche  du 'Volet Partage de Documents de Santé' et  documentReference du 'Volet Partage de Documents de Santé en mobilité'</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -476,34 +479,36 @@
       <c r="A12" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s" s="2">
+        <v>22</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -521,334 +526,334 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
         <v>29</v>
-      </c>
-      <c r="D1" t="s" s="1">
-        <v>26</v>
-      </c>
-      <c r="E1" t="s" s="1">
-        <v>28</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D13" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D14" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D15" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D17" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D18" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D19" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D20" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D21" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D22" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E22" s="2"/>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E23" s="2"/>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E24" s="2"/>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D25" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E25" s="2"/>
     </row>

--- a/add-info-dmp/ig/documentReferenceToPDSM.xlsx
+++ b/add-info-dmp/ig/documentReferenceToPDSM.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-03T14:02:53+00:00</t>
+    <t>2025-05-03T14:33:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/documentReferenceToPDSM.xlsx
+++ b/add-info-dmp/ig/documentReferenceToPDSM.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-03T14:33:40+00:00</t>
+    <t>2025-05-03T15:10:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/documentReferenceToPDSM.xlsx
+++ b/add-info-dmp/ig/documentReferenceToPDSM.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-03T15:10:00+00:00</t>
+    <t>2025-05-03T15:16:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/documentReferenceToPDSM.xlsx
+++ b/add-info-dmp/ig/documentReferenceToPDSM.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-03T15:16:04+00:00</t>
+    <t>2025-05-03T16:40:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/documentReferenceToPDSM.xlsx
+++ b/add-info-dmp/ig/documentReferenceToPDSM.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-03T16:40:31+00:00</t>
+    <t>2025-05-05T07:27:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/documentReferenceToPDSM.xlsx
+++ b/add-info-dmp/ig/documentReferenceToPDSM.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T07:27:11+00:00</t>
+    <t>2025-05-05T07:53:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/documentReferenceToPDSM.xlsx
+++ b/add-info-dmp/ig/documentReferenceToPDSM.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T07:53:58+00:00</t>
+    <t>2025-05-05T08:00:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/documentReferenceToPDSM.xlsx
+++ b/add-info-dmp/ig/documentReferenceToPDSM.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T08:00:51+00:00</t>
+    <t>2025-05-05T11:54:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/documentReferenceToPDSM.xlsx
+++ b/add-info-dmp/ig/documentReferenceToPDSM.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T11:54:16+00:00</t>
+    <t>2025-05-05T14:17:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/documentReferenceToPDSM.xlsx
+++ b/add-info-dmp/ig/documentReferenceToPDSM.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T14:17:01+00:00</t>
+    <t>2025-05-05T14:44:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/documentReferenceToPDSM.xlsx
+++ b/add-info-dmp/ig/documentReferenceToPDSM.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T14:44:38+00:00</t>
+    <t>2025-05-05T16:33:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/documentReferenceToPDSM.xlsx
+++ b/add-info-dmp/ig/documentReferenceToPDSM.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T16:33:44+00:00</t>
+    <t>2025-05-06T07:21:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/documentReferenceToPDSM.xlsx
+++ b/add-info-dmp/ig/documentReferenceToPDSM.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-06T07:21:29+00:00</t>
+    <t>2025-05-06T07:28:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/documentReferenceToPDSM.xlsx
+++ b/add-info-dmp/ig/documentReferenceToPDSM.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-06T07:28:27+00:00</t>
+    <t>2025-05-06T07:38:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/documentReferenceToPDSM.xlsx
+++ b/add-info-dmp/ig/documentReferenceToPDSM.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-06T07:38:42+00:00</t>
+    <t>2025-05-06T13:57:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/documentReferenceToPDSM.xlsx
+++ b/add-info-dmp/ig/documentReferenceToPDSM.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-06T13:57:20+00:00</t>
+    <t>2025-05-19T16:11:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
